--- a/SNT_QuickReference.xlsx
+++ b/SNT_QuickReference.xlsx
@@ -14,72 +14,456 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
-  <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>Function Name</t>
-  </si>
-  <si>
-    <t>Data Prep</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>output variable</t>
-  </si>
-  <si>
-    <t>net_nhdplus</t>
-  </si>
-  <si>
-    <t>net_sample</t>
-  </si>
-  <si>
-    <t>downloads NHDPlusV2 data from website.</t>
-  </si>
-  <si>
-    <t>net_comid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifies Common Identifers (COMID) from NHDPlusV2 of a given stream order </t>
-  </si>
-  <si>
-    <t>unnamed vector of comid</t>
-  </si>
-  <si>
-    <t>Identifies Common Identifers (COMID) from NHDPlusV2 closest to sampling points</t>
-  </si>
-  <si>
-    <t>group.comid</t>
-  </si>
-  <si>
-    <t>net.comid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMID of the reach at outlet of a network. </t>
-  </si>
-  <si>
-    <t>COMID of the reaches upstream of the network outlet (i.e. group.comid)</t>
-  </si>
-  <si>
-    <t>vpu</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Vector processing unit from NHDPlus V2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measure value representing the position of sampling point on a COMID represented as a proportion  proportion of flowline from the confluence. </t>
-  </si>
-  <si>
-    <t>net.id</t>
-  </si>
-  <si>
-    <t>Unique identifer for each network. Necessary because two sampling points could on different locations on the same group.comid</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="150">
+  <si>
+    <t xml:space="preserve">Variable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definition </t>
+  </si>
+  <si>
+    <t>basin_len</t>
+  </si>
+  <si>
+    <t>basin_area</t>
+  </si>
+  <si>
+    <t>basin_width</t>
+  </si>
+  <si>
+    <t>longest distance between two catchment verticies</t>
+  </si>
+  <si>
+    <t>net_cat</t>
+  </si>
+  <si>
+    <t>area of catchments</t>
+  </si>
+  <si>
+    <t>efffective basin width (basin_area/basin_len)</t>
+  </si>
+  <si>
+    <t>WS.order</t>
+  </si>
+  <si>
+    <t>strahler order for root node</t>
+  </si>
+  <si>
+    <t>head.h2o</t>
+  </si>
+  <si>
+    <t>number of headwater reaches</t>
+  </si>
+  <si>
+    <t>trib.jun</t>
+  </si>
+  <si>
+    <t>number of tributary junctions</t>
+  </si>
+  <si>
+    <t>reach.cnt</t>
+  </si>
+  <si>
+    <t>number of reaches in network</t>
+  </si>
+  <si>
+    <t>diver.cnt</t>
+  </si>
+  <si>
+    <t>count of divergent flow paths</t>
+  </si>
+  <si>
+    <t>AREASQKM</t>
+  </si>
+  <si>
+    <t>drainage area (km^2)</t>
+  </si>
+  <si>
+    <t>LENGTHKM</t>
+  </si>
+  <si>
+    <t>total lenght of network flowlines (km)</t>
+  </si>
+  <si>
+    <t>drain.den</t>
+  </si>
+  <si>
+    <t>drainage density (LENGTHKM / AREASQKM)</t>
+  </si>
+  <si>
+    <t>net_calc</t>
+  </si>
+  <si>
+    <t>TEMPVC</t>
+  </si>
+  <si>
+    <t>Basin Shape</t>
+  </si>
+  <si>
+    <t>Topology</t>
+  </si>
+  <si>
+    <t>Climate</t>
+  </si>
+  <si>
+    <t>mean annual temperature (deg C)</t>
+  </si>
+  <si>
+    <t>seasonality_t</t>
+  </si>
+  <si>
+    <t>Coefficient of variation of mean monthly temperatures</t>
+  </si>
+  <si>
+    <t>warm_mo</t>
+  </si>
+  <si>
+    <t>2-digit warmest month</t>
+  </si>
+  <si>
+    <t>warm_mo_t</t>
+  </si>
+  <si>
+    <t>mean temperature of warmest month</t>
+  </si>
+  <si>
+    <t>cold_mo</t>
+  </si>
+  <si>
+    <t>2-digit coldest month</t>
+  </si>
+  <si>
+    <t>cold_mo_t</t>
+  </si>
+  <si>
+    <t>mean temperature of coldest month</t>
+  </si>
+  <si>
+    <t>diff_t</t>
+  </si>
+  <si>
+    <t>difference between warm and cold monthly temperatures</t>
+  </si>
+  <si>
+    <t>warm_q_t</t>
+  </si>
+  <si>
+    <t>mean temperature of warmest quarter</t>
+  </si>
+  <si>
+    <t>warm_q</t>
+  </si>
+  <si>
+    <t>2-digit warmest quarter</t>
+  </si>
+  <si>
+    <t>cold_q_t</t>
+  </si>
+  <si>
+    <t>mean temperature of coldest quarter</t>
+  </si>
+  <si>
+    <t>cold_q</t>
+  </si>
+  <si>
+    <t>2-digit coldest quarter</t>
+  </si>
+  <si>
+    <t>PRECIPVC</t>
+  </si>
+  <si>
+    <t>cumulative mean annual precipiration (mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wet_mo </t>
+  </si>
+  <si>
+    <t>2-digit wettest month</t>
+  </si>
+  <si>
+    <t>wet_mo_p</t>
+  </si>
+  <si>
+    <t>cumulative mean precipitation of wettest month</t>
+  </si>
+  <si>
+    <t>dry_mo</t>
+  </si>
+  <si>
+    <t>2-digit driest month</t>
+  </si>
+  <si>
+    <t>dry_mo_p</t>
+  </si>
+  <si>
+    <t>cumulative mean precipitation of driest month</t>
+  </si>
+  <si>
+    <t>seasonality_p</t>
+  </si>
+  <si>
+    <t>coefficient of vatiation of mean monthly precipitation</t>
+  </si>
+  <si>
+    <t>wet_q_p</t>
+  </si>
+  <si>
+    <t>cumulaltive mean precipitation of wettest quarter</t>
+  </si>
+  <si>
+    <t>wet_q</t>
+  </si>
+  <si>
+    <t>2-digit wettest quarter</t>
+  </si>
+  <si>
+    <t>dry_q_p</t>
+  </si>
+  <si>
+    <t>cumulative mean precipitation of driest quarter</t>
+  </si>
+  <si>
+    <t>dry_q</t>
+  </si>
+  <si>
+    <t>2-digit driest quarter</t>
+  </si>
+  <si>
+    <t>dry_q_t</t>
+  </si>
+  <si>
+    <t>mean temperature of driest quarter</t>
+  </si>
+  <si>
+    <t>wet_q_t</t>
+  </si>
+  <si>
+    <t>mean temperature of wettest quarter</t>
+  </si>
+  <si>
+    <t>warm_q_p</t>
+  </si>
+  <si>
+    <t>cumulaltive mean precipitation of warmest quarter</t>
+  </si>
+  <si>
+    <t>cold_q_p</t>
+  </si>
+  <si>
+    <t>cumulaltive mean precipitation of coldest quarter</t>
+  </si>
+  <si>
+    <t>net_clim</t>
+  </si>
+  <si>
+    <t>trib_order</t>
+  </si>
+  <si>
+    <t>order of COMID downstream of confluence</t>
+  </si>
+  <si>
+    <t>area_ratio</t>
+  </si>
+  <si>
+    <t>darinage areas ratios (i.e. Triburaty Drainage Area / Mainstem Drainage Area);</t>
+  </si>
+  <si>
+    <t>trib_area</t>
+  </si>
+  <si>
+    <t>drainage area upstream of confluence</t>
+  </si>
+  <si>
+    <t>junction_num</t>
+  </si>
+  <si>
+    <t>is a concatenation of of strahler stream orders of confluence reaches</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> angle (degrees) of  tributary junction</t>
+  </si>
+  <si>
+    <t>complex</t>
+  </si>
+  <si>
+    <t>indicates complex triburaty junction</t>
+  </si>
+  <si>
+    <t>net_conflu</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>RUNOFFVC</t>
+  </si>
+  <si>
+    <t>cumulative mean annual runoff (mm)</t>
+  </si>
+  <si>
+    <t>MAQ0001E</t>
+  </si>
+  <si>
+    <t>Mean Annual EROM discharge</t>
+  </si>
+  <si>
+    <t>minMMQ0001E</t>
+  </si>
+  <si>
+    <t>minimum mean monthly discharge</t>
+  </si>
+  <si>
+    <t>maxMMQ0001E</t>
+  </si>
+  <si>
+    <t>maximum mean monthly discharge (cf)</t>
+  </si>
+  <si>
+    <t>covMMQ0001E</t>
+  </si>
+  <si>
+    <t>coeffficient of variation of mean monthly discharge</t>
+  </si>
+  <si>
+    <t>V0001E</t>
+  </si>
+  <si>
+    <t>mean annual velocity (cfs)</t>
+  </si>
+  <si>
+    <t>minMMV0001E</t>
+  </si>
+  <si>
+    <t>minimum mean monthly velocity (cfs)</t>
+  </si>
+  <si>
+    <t>maxMMV0001E</t>
+  </si>
+  <si>
+    <t>maximum mean monthly velocity</t>
+  </si>
+  <si>
+    <t>covMMV0001E</t>
+  </si>
+  <si>
+    <t>coefficient of variation in mean monthly velocity</t>
+  </si>
+  <si>
+    <t>net_flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topology </t>
+  </si>
+  <si>
+    <t>str_ord</t>
+  </si>
+  <si>
+    <t>stream order</t>
+  </si>
+  <si>
+    <t>str_num</t>
+  </si>
+  <si>
+    <t>count of stream reaches of specified order</t>
+  </si>
+  <si>
+    <t>str_len</t>
+  </si>
+  <si>
+    <t>mean length of stream reaches of specified order</t>
+  </si>
+  <si>
+    <t>str_area</t>
+  </si>
+  <si>
+    <t>mean draonage area of stream reaches of specified order</t>
+  </si>
+  <si>
+    <t>ohm</t>
+  </si>
+  <si>
+    <t>order of the network - 1</t>
+  </si>
+  <si>
+    <t>Ra</t>
+  </si>
+  <si>
+    <t>Rl</t>
+  </si>
+  <si>
+    <t>Rb</t>
+  </si>
+  <si>
+    <t>bifurcation Ratio</t>
+  </si>
+  <si>
+    <t>length Ratio</t>
+  </si>
+  <si>
+    <t>area Ratio</t>
+  </si>
+  <si>
+    <t>net_hort</t>
+  </si>
+  <si>
+    <t>Landcover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLCD2011 landcover percentages </t>
+  </si>
+  <si>
+    <t>net_lc</t>
+  </si>
+  <si>
+    <t>Planform</t>
+  </si>
+  <si>
+    <t>tot.len</t>
+  </si>
+  <si>
+    <t>length of reach</t>
+  </si>
+  <si>
+    <t>str.len</t>
+  </si>
+  <si>
+    <t>straight line length of reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sinuosity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">total length / straight line length </t>
+  </si>
+  <si>
+    <t>MaxElevSM</t>
+  </si>
+  <si>
+    <t>maximum elevation of reach</t>
+  </si>
+  <si>
+    <t>MinElevSM</t>
+  </si>
+  <si>
+    <t>minimum elevtion of reach</t>
+  </si>
+  <si>
+    <t>SlopeNHDPlus</t>
+  </si>
+  <si>
+    <t>slope of reach</t>
+  </si>
+  <si>
+    <t>net_sinu</t>
+  </si>
+  <si>
+    <t>StreamNetworkTools Function</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
@@ -115,8 +499,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,111 +808,958 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>